--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1849581.372117935</v>
+        <v>-1852300.77326218</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>325.9515015691446</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.8624394015534</v>
+        <v>116.8924292051497</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122.0870627977169</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.0432311719074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>287.3612431125965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>101.4787611642719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>102.8271679530007</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.8325157546369</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>291.8791078384227</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>27.05447077669565</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>47.60863693561669</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>237.7824440570186</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>205.297786851435</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>214.7441689014869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>46.35517081455701</v>
+        <v>100.988480008087</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>206.758226496619</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9025715636457</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445519</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.3251860078258</v>
+        <v>1601.904232705651</v>
       </c>
       <c r="C2" t="n">
-        <v>533.3251860078258</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D2" t="n">
-        <v>533.3251860078258</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3251860078258</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4325,19 +4325,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.9250260719475</v>
+        <v>1988.504072769773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.9860105762135</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0498276483066</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1513.125854622258</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>696.6344754064532</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.970833065919</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C5" t="n">
-        <v>1454.008316125507</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2335.136321770796</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2335.136321770796</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1982.367666500681</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1608.901908239602</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.570673130041</v>
+        <v>1218.76257626379</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.9684762037015</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="C7" t="n">
-        <v>600.0322932757946</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D7" t="n">
-        <v>449.9156538634588</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>302.0025602810657</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>155.1126127831554</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>155.1126127831554</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V7" t="n">
-        <v>1279.178225384192</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W7" t="n">
-        <v>989.7610553472316</v>
+        <v>895.7157139915109</v>
       </c>
       <c r="X7" t="n">
-        <v>989.7610553472316</v>
+        <v>667.7261630934936</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.9684762037015</v>
+        <v>453.7539249574967</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1283.162304328173</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="C8" t="n">
-        <v>914.1997873877613</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>555.9340887810108</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>555.9340887810108</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>144.9481839914033</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,28 +4799,28 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392295</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.762144392295</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4872,34 +4872,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>711.8144409709059</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>542.8782580429991</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>944.9485971021898</v>
       </c>
       <c r="X10" t="n">
-        <v>1114.255484944676</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y10" t="n">
-        <v>893.4629058011457</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V13" t="n">
-        <v>1471.472551934014</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.055381897053</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897053</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535234</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.093974969474</v>
+        <v>2277.908814167929</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.492509992416</v>
+        <v>2058.30734919087</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>504.8990944011446</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098242</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819173</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695815</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6394,7 +6394,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
         <v>2179.340199382518</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,31 +6856,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311332</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6926,40 +6926,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,25 +7108,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7789,10 +7789,10 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.5240487471576</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985633</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>240.446544241744</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>310.109866740947</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>60.37549925450014</v>
+        <v>269.3455094509039</v>
       </c>
     </row>
     <row r="3">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.54142218018737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>12.10766347585323</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>37.39347442234114</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>134.6711151870876</v>
+        <v>80.03780599355764</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>79.42624789262513</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.34424953498214</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26326,31 +26326,31 @@
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036143</v>
+        <v>187032.8958036144</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>36246.77703493719</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731961</v>
+        <v>8117.312426731982</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731973</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982541</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982541</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982541</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982545</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1162784.05514711</v>
+        <v>-1163213.614013699</v>
       </c>
       <c r="C6" t="n">
         <v>-124625.551468673</v>
@@ -26528,40 +26528,40 @@
         <v>-124625.551468673</v>
       </c>
       <c r="E6" t="n">
-        <v>-515831.9589139345</v>
+        <v>-515866.6968393699</v>
       </c>
       <c r="F6" t="n">
-        <v>-8346.51728938827</v>
+        <v>-8381.255214823977</v>
       </c>
       <c r="G6" t="n">
-        <v>-8346.517289388372</v>
+        <v>-8381.255214823963</v>
       </c>
       <c r="H6" t="n">
-        <v>-8346.517289388314</v>
+        <v>-8381.255214823977</v>
       </c>
       <c r="I6" t="n">
-        <v>-8346.517289388328</v>
+        <v>-8381.255214824007</v>
       </c>
       <c r="J6" t="n">
-        <v>-203674.9621143197</v>
+        <v>-203674.9621143196</v>
       </c>
       <c r="K6" t="n">
-        <v>-16642.0663107052</v>
+        <v>-16642.06631070524</v>
       </c>
       <c r="L6" t="n">
-        <v>-16642.06631070541</v>
+        <v>-16642.06631070537</v>
       </c>
       <c r="M6" t="n">
-        <v>-149249.3600396322</v>
+        <v>-149249.3600396321</v>
       </c>
       <c r="N6" t="n">
+        <v>-16642.06631070546</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-36069.78430433712</v>
+      </c>
+      <c r="P6" t="n">
         <v>-16642.06631070538</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-36069.78430433723</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-16642.0663107054</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>24.2846474920397</v>
@@ -26716,16 +26716,16 @@
         <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>55.16302503006057</v>
+        <v>39.32139020186293</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>72.57539756402061</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>67.32179850808649</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>149.5664889641902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>44.42434120212815</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>6.752137597457846</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>73.39378393258482</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>384.4932319962583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.0068360825957</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>48.74055427957242</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732306</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.2044093850078</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0.955613488306449</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>538.1269048795942</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287862</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
